--- a/biology/Botanique/Centaurea/Centaurea.xlsx
+++ b/biology/Botanique/Centaurea/Centaurea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre botanique Centaurea, désignées centaurées en nom vernaculaire, regroupe de nombreuses plantes de la famille des Astéracées (ou Composées), assez proches des chardons et des cirses, mais qui s'en distinguent notamment par leurs feuilles non épineuses.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Centaurea est un nom dédié au centaure Chiron qui, selon Ovide, aurait utilisé les propriétés médicinales d'une centaurée pour tenter de se soigner alors qu'il était blessé par une flèche empoisonnée d'Héraclès[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Centaurea est un nom dédié au centaure Chiron qui, selon Ovide, aurait utilisé les propriétés médicinales d'une centaurée pour tenter de se soigner alors qu'il était blessé par une flèche empoisonnée d'Héraclès.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Caractéristiques du genre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les centaurées sont des plantes herbacées annuelles, bisannuelles ou vivaces, à feuilles alternes.
 Comme pour toutes les composées, les fleurs, ou fleurons, sont disposées en capitule, entourées d'un involucre de bractées. Dans le cas des centaurées, les fleurs sont toutes tubulées, celles de la périphérie (souvent stériles) s'ouvrant largement en cinq lobes. Leur couleur varie le plus souvent entre le rose, le pourpre et le violet, mais il existe aussi quelques espèces à fleurs jaunes.
@@ -576,7 +592,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Acosta Adans.
 Aegialophila Boiss. &amp; Heldr.
@@ -597,7 +615,7 @@
 Tomanthea DC.
 Wagenitzia Dostál (en)
 Amberboa sect. Phaeopappus DC.
-Centaurea sect. Hyalaea DC[2].</t>
+Centaurea sect. Hyalaea DC.</t>
         </is>
       </c>
     </row>
@@ -625,11 +643,13 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Espèces du genre Centaurea selon Catalogue of Life
-Selon Catalogue of Life                                   (17 juin 2013)[3] :
+Selon Catalogue of Life                                   (17 juin 2013) :
 Centaurea acarnanica
 Centaurea acaulis L.
 Centaurea achaia
@@ -1374,7 +1394,7 @@
 Centaurea ×subdiffusa
 Centaurea ×ternilli
 Centaurea ×valdesii-bermejoi
-Liste complète des espèces euro-méditerranéennes in [2]
+Liste complète des espèces euro-méditerranéennes in 
 </t>
         </is>
       </c>
@@ -1403,7 +1423,9 @@
           <t>Plante hôte</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les centaurées sont la  plante hôte des chenilles de nombreux papillons :
 Agonopterix arenella
@@ -1424,7 +1446,7 @@
 Nyctegretis lineana
 Paratalanta hyalinalis
 Pyrgus carthami - hespérie du carthame
-Sitochroa verticalis[4].
+Sitochroa verticalis.
 </t>
         </is>
       </c>
@@ -1453,9 +1475,11 @@
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le langage des fleurs, la centaurée symbolise un message d'amour[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, la centaurée symbolise un message d'amour.
 </t>
         </is>
       </c>
